--- a/data/georgia_census/kakheti/telavi/average_wages.xlsx
+++ b/data/georgia_census/kakheti/telavi/average_wages.xlsx
@@ -1107,13 +1107,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F98AACC7-61EC-497B-BB34-87BF0DBCC0BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2084AA3-4B1E-439C-AFB1-9A351967B2E6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162A1823-A892-4162-B2A8-60807F53E43F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D752E17B-62C5-4868-9896-FA6C280C52EB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DDC910-0B61-4C27-BB71-3A2FC7CFB616}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B86FDD2A-52C7-45B8-8469-6B6C00FD1EF9}"/>
 </file>